--- a/_Out/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +76,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务器</t>
@@ -87,6 +87,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ID</t>
@@ -111,6 +112,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>作为服务器时：相对客户端的</t>
@@ -121,6 +123,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>port</t>
@@ -188,19 +191,25 @@
   </si>
   <si>
     <t>TutorialServer</t>
+  </si>
+  <si>
+    <t>AIServer_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -224,166 +233,25 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,194 +270,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -713,241 +395,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,57 +451,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1381,30 +784,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.7083333333333"/>
+    <col min="1" max="1" width="28.75"/>
     <col min="2" max="2" width="10.5"/>
-    <col min="3" max="3" width="15.9583333333333"/>
-    <col min="4" max="4" width="11.675"/>
-    <col min="5" max="5" width="8.14166666666667"/>
-    <col min="6" max="6" width="15.3166666666667"/>
-    <col min="7" max="7" width="23.0333333333333"/>
-    <col min="8" max="8" width="9.31666666666667"/>
-    <col min="9" max="1025" width="8.575"/>
+    <col min="3" max="3" width="16"/>
+    <col min="4" max="4" width="11.625"/>
+    <col min="5" max="5" width="8.125"/>
+    <col min="6" max="6" width="15.375"/>
+    <col min="7" max="7" width="23"/>
+    <col min="8" max="8" width="9.375"/>
+    <col min="9" max="1025" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1573,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="3" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="41.25" spans="1:9">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="40.5">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
@@ -1859,14 +1260,14 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>42</v>
+      <c r="A15" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -1878,24 +1279,53 @@
         <v>29</v>
       </c>
       <c r="G15" s="15">
+        <v>18001</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="15">
         <v>14001</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
   </dataValidations>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel_Ini/Server.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Server.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -204,11 +209,14 @@
     <t>8</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Force</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -452,7 +460,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -524,6 +532,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -784,25 +800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.75"/>
-    <col min="2" max="2" width="10.5"/>
+    <col min="1" max="1" width="28.73046875"/>
+    <col min="2" max="2" width="10.46484375"/>
     <col min="3" max="3" width="16"/>
-    <col min="4" max="4" width="11.625"/>
-    <col min="5" max="5" width="8.125"/>
-    <col min="6" max="6" width="15.375"/>
+    <col min="4" max="4" width="11.59765625"/>
+    <col min="5" max="5" width="8.1328125"/>
+    <col min="6" max="6" width="15.3984375"/>
     <col min="7" max="7" width="23"/>
-    <col min="8" max="8" width="9.375"/>
-    <col min="9" max="1025" width="8.625"/>
+    <col min="8" max="8" width="9.3984375"/>
+    <col min="9" max="1025" width="8.59765625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="27">
@@ -1050,108 +1066,116 @@
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <f t="shared" ref="B8:I9" si="5">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <f t="shared" ref="B8:I8" si="5">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="40.5">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="41.65">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>5000</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>16001</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1163,10 +1187,10 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <v>17001</v>
+        <v>16001</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1174,13 +1198,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1192,10 +1216,10 @@
         <v>29</v>
       </c>
       <c r="G12">
-        <v>15001</v>
+        <v>17001</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1203,13 +1227,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1221,24 +1245,24 @@
         <v>29</v>
       </c>
       <c r="G13">
-        <v>13001</v>
+        <v>15001</v>
       </c>
       <c r="H13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>41</v>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1249,11 +1273,11 @@
       <c r="F14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="15">
-        <v>14001</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>40</v>
+      <c r="G14">
+        <v>13001</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1261,13 +1285,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -1279,24 +1303,24 @@
         <v>29</v>
       </c>
       <c r="G15" s="15">
-        <v>18001</v>
+        <v>14001</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D16">
         <v>5000</v>
@@ -1308,22 +1332,51 @@
         <v>29</v>
       </c>
       <c r="G16" s="15">
+        <v>18001</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>5000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="15">
         <v>14001</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F9 B7:J8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
